--- a/artfynd/A 25323-2023.xlsx
+++ b/artfynd/A 25323-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111870313</v>
+        <v>111868438</v>
       </c>
       <c r="B2" t="n">
-        <v>90666</v>
+        <v>89369</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4364</v>
+        <v>5447</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>494300.8448030807</v>
+        <v>494362.7928428605</v>
       </c>
       <c r="R2" t="n">
-        <v>6928922.358515132</v>
+        <v>6928873.253674754</v>
       </c>
       <c r="S2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111868443</v>
+        <v>111868497</v>
       </c>
       <c r="B3" t="n">
-        <v>94134</v>
+        <v>90666</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>53</v>
+        <v>4364</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>494362.7928428605</v>
+        <v>494353.5649246778</v>
       </c>
       <c r="R3" t="n">
-        <v>6928873.253674754</v>
+        <v>6928891.297464305</v>
       </c>
       <c r="S3" t="n">
         <v>30</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111870723</v>
+        <v>111870498</v>
       </c>
       <c r="B5" t="n">
         <v>77515</v>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>494308.2301515925</v>
+        <v>494300.8448030807</v>
       </c>
       <c r="R5" t="n">
-        <v>6928909.864978053</v>
+        <v>6928922.358515132</v>
       </c>
       <c r="S5" t="n">
         <v>20</v>
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111870880</v>
+        <v>111870913</v>
       </c>
       <c r="B6" t="n">
-        <v>90682</v>
+        <v>90666</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,25 +1144,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111870498</v>
+        <v>111868443</v>
       </c>
       <c r="B7" t="n">
-        <v>77515</v>
+        <v>94134</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1261,21 +1261,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>53</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1286,13 +1286,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>494300.8448030807</v>
+        <v>494362.7928428605</v>
       </c>
       <c r="R7" t="n">
-        <v>6928922.358515132</v>
+        <v>6928873.253674754</v>
       </c>
       <c r="S7" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111868481</v>
+        <v>111870556</v>
       </c>
       <c r="B8" t="n">
         <v>89768</v>
@@ -1399,13 +1399,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>494353.5649246778</v>
+        <v>494300.8448030807</v>
       </c>
       <c r="R8" t="n">
-        <v>6928891.297464305</v>
+        <v>6928922.358515132</v>
       </c>
       <c r="S8" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1471,10 +1471,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111868438</v>
+        <v>111870057</v>
       </c>
       <c r="B9" t="n">
-        <v>89369</v>
+        <v>90710</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1483,25 +1483,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5447</v>
+        <v>5449</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>494362.7928428605</v>
+        <v>494313.8309844609</v>
       </c>
       <c r="R9" t="n">
-        <v>6928873.253674754</v>
+        <v>6928936.666174219</v>
       </c>
       <c r="S9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111868497</v>
+        <v>111870880</v>
       </c>
       <c r="B10" t="n">
-        <v>90666</v>
+        <v>90682</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1596,25 +1596,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1625,13 +1625,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>494353.5649246778</v>
+        <v>494329.8818758607</v>
       </c>
       <c r="R10" t="n">
-        <v>6928891.297464305</v>
+        <v>6928847.885087442</v>
       </c>
       <c r="S10" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111868823</v>
+        <v>111870313</v>
       </c>
       <c r="B11" t="n">
         <v>90666</v>
@@ -1731,22 +1731,20 @@
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Kläppberget, Kläppberget, Haverö, Jmt</t>
+          <t>Motjärnen (Motjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>494337.903403784</v>
+        <v>494300.8448030807</v>
       </c>
       <c r="R11" t="n">
-        <v>6928937.08739532</v>
+        <v>6928922.358515132</v>
       </c>
       <c r="S11" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1794,7 +1792,6 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1813,10 +1810,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111869523</v>
+        <v>111869281</v>
       </c>
       <c r="B12" t="n">
-        <v>56543</v>
+        <v>90670</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1825,25 +1822,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>103021</v>
+        <v>4365</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1926,10 +1923,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111868975</v>
+        <v>111869523</v>
       </c>
       <c r="B13" t="n">
-        <v>90678</v>
+        <v>56543</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1938,25 +1935,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4366</v>
+        <v>103021</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1967,10 +1964,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>494340.6856146594</v>
+        <v>494332.8215585449</v>
       </c>
       <c r="R13" t="n">
-        <v>6928939.85617921</v>
+        <v>6928943.105322422</v>
       </c>
       <c r="S13" t="n">
         <v>30</v>
@@ -2002,7 +1999,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2012,7 +2009,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2039,10 +2036,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111870057</v>
+        <v>111868823</v>
       </c>
       <c r="B14" t="n">
-        <v>90710</v>
+        <v>90666</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2051,42 +2048,44 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5449</v>
+        <v>4364</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Motjärnen (Motjärnen), Jmt</t>
+          <t>Kläppberget, Kläppberget, Haverö, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>494313.8309844609</v>
+        <v>494337.903403784</v>
       </c>
       <c r="R14" t="n">
-        <v>6928936.666174219</v>
+        <v>6928937.08739532</v>
       </c>
       <c r="S14" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2134,6 +2133,7 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2152,10 +2152,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111869281</v>
+        <v>111868481</v>
       </c>
       <c r="B15" t="n">
-        <v>90670</v>
+        <v>89768</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2168,21 +2168,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4365</v>
+        <v>298</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Laxgröppa</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Byssomerulius albostramineus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Torrend) Hjortstam</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2193,10 +2193,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>494332.8215585449</v>
+        <v>494353.5649246778</v>
       </c>
       <c r="R15" t="n">
-        <v>6928943.105322422</v>
+        <v>6928891.297464305</v>
       </c>
       <c r="S15" t="n">
         <v>30</v>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2265,10 +2265,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111870556</v>
+        <v>111868975</v>
       </c>
       <c r="B16" t="n">
-        <v>89768</v>
+        <v>90678</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2277,25 +2277,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>298</v>
+        <v>4366</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Laxgröppa</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Byssomerulius albostramineus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Torrend) Hjortstam</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2306,13 +2306,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>494300.8448030807</v>
+        <v>494340.6856146594</v>
       </c>
       <c r="R16" t="n">
-        <v>6928922.358515132</v>
+        <v>6928939.85617921</v>
       </c>
       <c r="S16" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2378,10 +2378,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111870913</v>
+        <v>111870723</v>
       </c>
       <c r="B17" t="n">
-        <v>90666</v>
+        <v>77515</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2390,25 +2390,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2419,10 +2419,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>494329.8818758607</v>
+        <v>494308.2301515925</v>
       </c>
       <c r="R17" t="n">
-        <v>6928847.885087442</v>
+        <v>6928909.864978053</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>

--- a/artfynd/A 25323-2023.xlsx
+++ b/artfynd/A 25323-2023.xlsx
@@ -1584,10 +1584,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111870880</v>
+        <v>111870313</v>
       </c>
       <c r="B10" t="n">
-        <v>90682</v>
+        <v>90666</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1596,25 +1596,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1625,10 +1625,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>494329.8818758607</v>
+        <v>494300.8448030807</v>
       </c>
       <c r="R10" t="n">
-        <v>6928847.885087442</v>
+        <v>6928922.358515132</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1697,10 +1697,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111870313</v>
+        <v>111870880</v>
       </c>
       <c r="B11" t="n">
-        <v>90666</v>
+        <v>90682</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1709,25 +1709,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1738,10 +1738,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>494300.8448030807</v>
+        <v>494329.8818758607</v>
       </c>
       <c r="R11" t="n">
-        <v>6928922.358515132</v>
+        <v>6928847.885087442</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>

--- a/artfynd/A 25323-2023.xlsx
+++ b/artfynd/A 25323-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111868438</v>
+        <v>111868481</v>
       </c>
       <c r="B2" t="n">
-        <v>89369</v>
+        <v>89768</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5447</v>
+        <v>298</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Laxgröppa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Byssomerulius albostramineus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Torrend) Hjortstam</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>494362.7928428605</v>
+        <v>494353.5649246778</v>
       </c>
       <c r="R2" t="n">
-        <v>6928873.253674754</v>
+        <v>6928891.297464305</v>
       </c>
       <c r="S2" t="n">
         <v>30</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111868497</v>
+        <v>111870057</v>
       </c>
       <c r="B3" t="n">
-        <v>90666</v>
+        <v>90710</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4364</v>
+        <v>5449</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,13 +834,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>494353.5649246778</v>
+        <v>494313.8309844609</v>
       </c>
       <c r="R3" t="n">
-        <v>6928891.297464305</v>
+        <v>6928936.666174219</v>
       </c>
       <c r="S3" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -906,7 +906,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111870906</v>
+        <v>111870723</v>
       </c>
       <c r="B4" t="n">
         <v>77515</v>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>494329.8818758607</v>
+        <v>494308.2301515925</v>
       </c>
       <c r="R4" t="n">
-        <v>6928847.885087442</v>
+        <v>6928909.864978053</v>
       </c>
       <c r="S4" t="n">
         <v>20</v>
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111870498</v>
+        <v>111870880</v>
       </c>
       <c r="B5" t="n">
-        <v>77515</v>
+        <v>90682</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1035,21 +1035,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>2059</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>494300.8448030807</v>
+        <v>494329.8818758607</v>
       </c>
       <c r="R5" t="n">
-        <v>6928922.358515132</v>
+        <v>6928847.885087442</v>
       </c>
       <c r="S5" t="n">
         <v>20</v>
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111870913</v>
+        <v>111870556</v>
       </c>
       <c r="B6" t="n">
-        <v>90666</v>
+        <v>89768</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,25 +1144,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4364</v>
+        <v>298</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Laxgröppa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Byssomerulius albostramineus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Torrend) Hjortstam</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1173,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>494329.8818758607</v>
+        <v>494300.8448030807</v>
       </c>
       <c r="R6" t="n">
-        <v>6928847.885087442</v>
+        <v>6928922.358515132</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111868443</v>
+        <v>111868975</v>
       </c>
       <c r="B7" t="n">
-        <v>94134</v>
+        <v>90678</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1257,25 +1257,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>53</v>
+        <v>4366</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1286,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>494362.7928428605</v>
+        <v>494340.6856146594</v>
       </c>
       <c r="R7" t="n">
-        <v>6928873.253674754</v>
+        <v>6928939.85617921</v>
       </c>
       <c r="S7" t="n">
         <v>30</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111870556</v>
+        <v>111869281</v>
       </c>
       <c r="B8" t="n">
-        <v>89768</v>
+        <v>90670</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1374,21 +1374,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>298</v>
+        <v>4365</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Laxgröppa</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Byssomerulius albostramineus</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Torrend) Hjortstam</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1399,13 +1399,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>494300.8448030807</v>
+        <v>494332.8215585449</v>
       </c>
       <c r="R8" t="n">
-        <v>6928922.358515132</v>
+        <v>6928943.105322422</v>
       </c>
       <c r="S8" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1471,10 +1471,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111870057</v>
+        <v>111868823</v>
       </c>
       <c r="B9" t="n">
-        <v>90710</v>
+        <v>90666</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1483,42 +1483,44 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5449</v>
+        <v>4364</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Motjärnen (Motjärnen), Jmt</t>
+          <t>Kläppberget, Kläppberget, Haverö, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>494313.8309844609</v>
+        <v>494337.903403784</v>
       </c>
       <c r="R9" t="n">
-        <v>6928936.666174219</v>
+        <v>6928937.08739532</v>
       </c>
       <c r="S9" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1566,6 +1568,7 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1584,10 +1587,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111870313</v>
+        <v>111870906</v>
       </c>
       <c r="B10" t="n">
-        <v>90666</v>
+        <v>77515</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1596,25 +1599,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1625,10 +1628,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>494300.8448030807</v>
+        <v>494329.8818758607</v>
       </c>
       <c r="R10" t="n">
-        <v>6928922.358515132</v>
+        <v>6928847.885087442</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1697,10 +1700,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111870880</v>
+        <v>111870313</v>
       </c>
       <c r="B11" t="n">
-        <v>90682</v>
+        <v>90666</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1709,25 +1712,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1738,10 +1741,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>494329.8818758607</v>
+        <v>494300.8448030807</v>
       </c>
       <c r="R11" t="n">
-        <v>6928847.885087442</v>
+        <v>6928922.358515132</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1810,10 +1813,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111869281</v>
+        <v>111868438</v>
       </c>
       <c r="B12" t="n">
-        <v>90670</v>
+        <v>89369</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1822,25 +1825,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4365</v>
+        <v>5447</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1851,10 +1854,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>494332.8215585449</v>
+        <v>494362.7928428605</v>
       </c>
       <c r="R12" t="n">
-        <v>6928943.105322422</v>
+        <v>6928873.253674754</v>
       </c>
       <c r="S12" t="n">
         <v>30</v>
@@ -1886,7 +1889,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1896,7 +1899,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1923,10 +1926,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111869523</v>
+        <v>111870913</v>
       </c>
       <c r="B13" t="n">
-        <v>56543</v>
+        <v>90666</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1935,25 +1938,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>103021</v>
+        <v>4364</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1964,13 +1967,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>494332.8215585449</v>
+        <v>494329.8818758607</v>
       </c>
       <c r="R13" t="n">
-        <v>6928943.105322422</v>
+        <v>6928847.885087442</v>
       </c>
       <c r="S13" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1999,7 +2002,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2009,7 +2012,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2036,7 +2039,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111868823</v>
+        <v>111868497</v>
       </c>
       <c r="B14" t="n">
         <v>90666</v>
@@ -2070,22 +2073,20 @@
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Kläppberget, Kläppberget, Haverö, Jmt</t>
+          <t>Motjärnen (Motjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>494337.903403784</v>
+        <v>494353.5649246778</v>
       </c>
       <c r="R14" t="n">
-        <v>6928937.08739532</v>
+        <v>6928891.297464305</v>
       </c>
       <c r="S14" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2133,7 +2134,6 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2152,10 +2152,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111868481</v>
+        <v>111870498</v>
       </c>
       <c r="B15" t="n">
-        <v>89768</v>
+        <v>77515</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2164,25 +2164,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>298</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Laxgröppa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Byssomerulius albostramineus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Torrend) Hjortstam</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2193,13 +2193,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>494353.5649246778</v>
+        <v>494300.8448030807</v>
       </c>
       <c r="R15" t="n">
-        <v>6928891.297464305</v>
+        <v>6928922.358515132</v>
       </c>
       <c r="S15" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2265,10 +2265,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111868975</v>
+        <v>111868443</v>
       </c>
       <c r="B16" t="n">
-        <v>90678</v>
+        <v>94134</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2277,25 +2277,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4366</v>
+        <v>53</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>494340.6856146594</v>
+        <v>494362.7928428605</v>
       </c>
       <c r="R16" t="n">
-        <v>6928939.85617921</v>
+        <v>6928873.253674754</v>
       </c>
       <c r="S16" t="n">
         <v>30</v>
@@ -2378,10 +2378,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111870723</v>
+        <v>111869523</v>
       </c>
       <c r="B17" t="n">
-        <v>77515</v>
+        <v>56543</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2394,21 +2394,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>103021</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2419,13 +2419,13 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>494308.2301515925</v>
+        <v>494332.8215585449</v>
       </c>
       <c r="R17" t="n">
-        <v>6928909.864978053</v>
+        <v>6928943.105322422</v>
       </c>
       <c r="S17" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AD17" t="b">

--- a/artfynd/A 25323-2023.xlsx
+++ b/artfynd/A 25323-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111868481</v>
+        <v>111868438</v>
       </c>
       <c r="B2" t="n">
-        <v>89768</v>
+        <v>89369</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>298</v>
+        <v>5447</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Laxgröppa</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Byssomerulius albostramineus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Torrend) Hjortstam</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>494353.5649246778</v>
+        <v>494362.7928428605</v>
       </c>
       <c r="R2" t="n">
-        <v>6928891.297464305</v>
+        <v>6928873.253674754</v>
       </c>
       <c r="S2" t="n">
         <v>30</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111870057</v>
+        <v>111870313</v>
       </c>
       <c r="B3" t="n">
-        <v>90710</v>
+        <v>90666</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5449</v>
+        <v>4364</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>494313.8309844609</v>
+        <v>494300.8448030807</v>
       </c>
       <c r="R3" t="n">
-        <v>6928936.666174219</v>
+        <v>6928922.358515132</v>
       </c>
       <c r="S3" t="n">
         <v>20</v>
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111870723</v>
+        <v>111868497</v>
       </c>
       <c r="B4" t="n">
-        <v>77515</v>
+        <v>90666</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,13 +947,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>494308.2301515925</v>
+        <v>494353.5649246778</v>
       </c>
       <c r="R4" t="n">
-        <v>6928909.864978053</v>
+        <v>6928891.297464305</v>
       </c>
       <c r="S4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111870880</v>
+        <v>111870498</v>
       </c>
       <c r="B5" t="n">
-        <v>90682</v>
+        <v>77515</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1035,21 +1035,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2059</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>494329.8818758607</v>
+        <v>494300.8448030807</v>
       </c>
       <c r="R5" t="n">
-        <v>6928847.885087442</v>
+        <v>6928922.358515132</v>
       </c>
       <c r="S5" t="n">
         <v>20</v>
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111870556</v>
+        <v>111870906</v>
       </c>
       <c r="B6" t="n">
-        <v>89768</v>
+        <v>77515</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,25 +1144,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>298</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Laxgröppa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Byssomerulius albostramineus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Torrend) Hjortstam</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1173,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>494300.8448030807</v>
+        <v>494329.8818758607</v>
       </c>
       <c r="R6" t="n">
-        <v>6928922.358515132</v>
+        <v>6928847.885087442</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111868975</v>
+        <v>111869523</v>
       </c>
       <c r="B7" t="n">
-        <v>90678</v>
+        <v>56543</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1257,25 +1257,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4366</v>
+        <v>103021</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1286,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>494340.6856146594</v>
+        <v>494332.8215585449</v>
       </c>
       <c r="R7" t="n">
-        <v>6928939.85617921</v>
+        <v>6928943.105322422</v>
       </c>
       <c r="S7" t="n">
         <v>30</v>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1358,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111869281</v>
+        <v>111868823</v>
       </c>
       <c r="B8" t="n">
-        <v>90670</v>
+        <v>90666</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1370,42 +1370,44 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4365</v>
+        <v>4364</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Motjärnen (Motjärnen), Jmt</t>
+          <t>Kläppberget, Kläppberget, Haverö, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>494332.8215585449</v>
+        <v>494337.903403784</v>
       </c>
       <c r="R8" t="n">
-        <v>6928943.105322422</v>
+        <v>6928937.08739532</v>
       </c>
       <c r="S8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1434,7 +1436,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1444,7 +1446,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1453,6 +1455,7 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1471,10 +1474,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111868823</v>
+        <v>111870556</v>
       </c>
       <c r="B9" t="n">
-        <v>90666</v>
+        <v>89768</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1483,44 +1486,42 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4364</v>
+        <v>298</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Laxgröppa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Byssomerulius albostramineus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Torrend) Hjortstam</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Kläppberget, Kläppberget, Haverö, Jmt</t>
+          <t>Motjärnen (Motjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>494337.903403784</v>
+        <v>494300.8448030807</v>
       </c>
       <c r="R9" t="n">
-        <v>6928937.08739532</v>
+        <v>6928922.358515132</v>
       </c>
       <c r="S9" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1568,7 +1569,6 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1587,10 +1587,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111870906</v>
+        <v>111870057</v>
       </c>
       <c r="B10" t="n">
-        <v>77515</v>
+        <v>90710</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1603,21 +1603,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>5449</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1628,10 +1628,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>494329.8818758607</v>
+        <v>494313.8309844609</v>
       </c>
       <c r="R10" t="n">
-        <v>6928847.885087442</v>
+        <v>6928936.666174219</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1700,10 +1700,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111870313</v>
+        <v>111870723</v>
       </c>
       <c r="B11" t="n">
-        <v>90666</v>
+        <v>77515</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1712,25 +1712,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1741,10 +1741,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>494300.8448030807</v>
+        <v>494308.2301515925</v>
       </c>
       <c r="R11" t="n">
-        <v>6928922.358515132</v>
+        <v>6928909.864978053</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1813,10 +1813,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111868438</v>
+        <v>111869281</v>
       </c>
       <c r="B12" t="n">
-        <v>89369</v>
+        <v>90670</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1825,25 +1825,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5447</v>
+        <v>4365</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1854,10 +1854,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>494362.7928428605</v>
+        <v>494332.8215585449</v>
       </c>
       <c r="R12" t="n">
-        <v>6928873.253674754</v>
+        <v>6928943.105322422</v>
       </c>
       <c r="S12" t="n">
         <v>30</v>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1926,10 +1926,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111870913</v>
+        <v>111868975</v>
       </c>
       <c r="B13" t="n">
-        <v>90666</v>
+        <v>90678</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1942,21 +1942,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1967,13 +1967,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>494329.8818758607</v>
+        <v>494340.6856146594</v>
       </c>
       <c r="R13" t="n">
-        <v>6928847.885087442</v>
+        <v>6928939.85617921</v>
       </c>
       <c r="S13" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2039,10 +2039,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111868497</v>
+        <v>111868443</v>
       </c>
       <c r="B14" t="n">
-        <v>90666</v>
+        <v>94134</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2051,25 +2051,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4364</v>
+        <v>53</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>494353.5649246778</v>
+        <v>494362.7928428605</v>
       </c>
       <c r="R14" t="n">
-        <v>6928891.297464305</v>
+        <v>6928873.253674754</v>
       </c>
       <c r="S14" t="n">
         <v>30</v>
@@ -2152,10 +2152,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111870498</v>
+        <v>111870913</v>
       </c>
       <c r="B15" t="n">
-        <v>77515</v>
+        <v>90666</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2164,25 +2164,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2193,10 +2193,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>494300.8448030807</v>
+        <v>494329.8818758607</v>
       </c>
       <c r="R15" t="n">
-        <v>6928922.358515132</v>
+        <v>6928847.885087442</v>
       </c>
       <c r="S15" t="n">
         <v>20</v>
@@ -2265,10 +2265,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111868443</v>
+        <v>111868481</v>
       </c>
       <c r="B16" t="n">
-        <v>94134</v>
+        <v>89768</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2277,25 +2277,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>53</v>
+        <v>298</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Laxgröppa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Byssomerulius albostramineus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Torrend) Hjortstam</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>494362.7928428605</v>
+        <v>494353.5649246778</v>
       </c>
       <c r="R16" t="n">
-        <v>6928873.253674754</v>
+        <v>6928891.297464305</v>
       </c>
       <c r="S16" t="n">
         <v>30</v>
@@ -2378,10 +2378,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111869523</v>
+        <v>111870880</v>
       </c>
       <c r="B17" t="n">
-        <v>56543</v>
+        <v>90682</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2394,21 +2394,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>103021</v>
+        <v>2059</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2419,13 +2419,13 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>494332.8215585449</v>
+        <v>494329.8818758607</v>
       </c>
       <c r="R17" t="n">
-        <v>6928943.105322422</v>
+        <v>6928847.885087442</v>
       </c>
       <c r="S17" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AD17" t="b">

--- a/artfynd/A 25323-2023.xlsx
+++ b/artfynd/A 25323-2023.xlsx
@@ -2039,10 +2039,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111868443</v>
+        <v>111870913</v>
       </c>
       <c r="B14" t="n">
-        <v>94134</v>
+        <v>90666</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2051,25 +2051,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>53</v>
+        <v>4364</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>494362.7928428605</v>
+        <v>494329.8818758607</v>
       </c>
       <c r="R14" t="n">
-        <v>6928873.253674754</v>
+        <v>6928847.885087442</v>
       </c>
       <c r="S14" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2152,10 +2152,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111870913</v>
+        <v>111868443</v>
       </c>
       <c r="B15" t="n">
-        <v>90666</v>
+        <v>94134</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2164,25 +2164,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4364</v>
+        <v>53</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2193,13 +2193,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>494329.8818758607</v>
+        <v>494362.7928428605</v>
       </c>
       <c r="R15" t="n">
-        <v>6928847.885087442</v>
+        <v>6928873.253674754</v>
       </c>
       <c r="S15" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>

--- a/artfynd/A 25323-2023.xlsx
+++ b/artfynd/A 25323-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111868438</v>
+        <v>111870313</v>
       </c>
       <c r="B2" t="n">
-        <v>89369</v>
+        <v>90666</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5447</v>
+        <v>4364</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>494362.7928428605</v>
+        <v>494300.8448030807</v>
       </c>
       <c r="R2" t="n">
-        <v>6928873.253674754</v>
+        <v>6928922.358515132</v>
       </c>
       <c r="S2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111870313</v>
+        <v>111868438</v>
       </c>
       <c r="B3" t="n">
-        <v>90666</v>
+        <v>89369</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4364</v>
+        <v>5447</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,13 +834,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>494300.8448030807</v>
+        <v>494362.7928428605</v>
       </c>
       <c r="R3" t="n">
-        <v>6928922.358515132</v>
+        <v>6928873.253674754</v>
       </c>
       <c r="S3" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111868497</v>
+        <v>111870880</v>
       </c>
       <c r="B4" t="n">
-        <v>90666</v>
+        <v>90682</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,13 +947,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>494353.5649246778</v>
+        <v>494329.8818758607</v>
       </c>
       <c r="R4" t="n">
-        <v>6928891.297464305</v>
+        <v>6928847.885087442</v>
       </c>
       <c r="S4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111870498</v>
+        <v>111868481</v>
       </c>
       <c r="B5" t="n">
-        <v>77515</v>
+        <v>89768</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>298</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Laxgröppa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Byssomerulius albostramineus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Torrend) Hjortstam</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,13 +1060,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>494300.8448030807</v>
+        <v>494353.5649246778</v>
       </c>
       <c r="R5" t="n">
-        <v>6928922.358515132</v>
+        <v>6928891.297464305</v>
       </c>
       <c r="S5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111870906</v>
+        <v>111870498</v>
       </c>
       <c r="B6" t="n">
         <v>77515</v>
@@ -1173,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>494329.8818758607</v>
+        <v>494300.8448030807</v>
       </c>
       <c r="R6" t="n">
-        <v>6928847.885087442</v>
+        <v>6928922.358515132</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111869523</v>
+        <v>111870057</v>
       </c>
       <c r="B7" t="n">
-        <v>56543</v>
+        <v>90710</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1261,21 +1261,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>103021</v>
+        <v>5449</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1286,13 +1286,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>494332.8215585449</v>
+        <v>494313.8309844609</v>
       </c>
       <c r="R7" t="n">
-        <v>6928943.105322422</v>
+        <v>6928936.666174219</v>
       </c>
       <c r="S7" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1358,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111868823</v>
+        <v>111870723</v>
       </c>
       <c r="B8" t="n">
-        <v>90666</v>
+        <v>77515</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1370,44 +1370,42 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Kläppberget, Kläppberget, Haverö, Jmt</t>
+          <t>Motjärnen (Motjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>494337.903403784</v>
+        <v>494308.2301515925</v>
       </c>
       <c r="R8" t="n">
-        <v>6928937.08739532</v>
+        <v>6928909.864978053</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1455,7 +1453,6 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1474,10 +1471,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111870556</v>
+        <v>111869281</v>
       </c>
       <c r="B9" t="n">
-        <v>89768</v>
+        <v>90670</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1490,21 +1487,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>298</v>
+        <v>4365</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Laxgröppa</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Byssomerulius albostramineus</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Torrend) Hjortstam</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1515,13 +1512,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>494300.8448030807</v>
+        <v>494332.8215585449</v>
       </c>
       <c r="R9" t="n">
-        <v>6928922.358515132</v>
+        <v>6928943.105322422</v>
       </c>
       <c r="S9" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1550,7 +1547,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1560,7 +1557,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1587,10 +1584,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111870057</v>
+        <v>111870906</v>
       </c>
       <c r="B10" t="n">
-        <v>90710</v>
+        <v>77515</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1603,21 +1600,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5449</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1628,10 +1625,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>494313.8309844609</v>
+        <v>494329.8818758607</v>
       </c>
       <c r="R10" t="n">
-        <v>6928936.666174219</v>
+        <v>6928847.885087442</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1700,10 +1697,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111870723</v>
+        <v>111870913</v>
       </c>
       <c r="B11" t="n">
-        <v>77515</v>
+        <v>90666</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1712,25 +1709,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1741,10 +1738,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>494308.2301515925</v>
+        <v>494329.8818758607</v>
       </c>
       <c r="R11" t="n">
-        <v>6928909.864978053</v>
+        <v>6928847.885087442</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1813,10 +1810,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111869281</v>
+        <v>111868497</v>
       </c>
       <c r="B12" t="n">
-        <v>90670</v>
+        <v>90666</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1825,25 +1822,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4365</v>
+        <v>4364</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1854,10 +1851,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>494332.8215585449</v>
+        <v>494353.5649246778</v>
       </c>
       <c r="R12" t="n">
-        <v>6928943.105322422</v>
+        <v>6928891.297464305</v>
       </c>
       <c r="S12" t="n">
         <v>30</v>
@@ -1889,7 +1886,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1899,7 +1896,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2039,10 +2036,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111870913</v>
+        <v>111868443</v>
       </c>
       <c r="B14" t="n">
-        <v>90666</v>
+        <v>94134</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2051,25 +2048,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4364</v>
+        <v>53</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2080,13 +2077,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>494329.8818758607</v>
+        <v>494362.7928428605</v>
       </c>
       <c r="R14" t="n">
-        <v>6928847.885087442</v>
+        <v>6928873.253674754</v>
       </c>
       <c r="S14" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2152,10 +2149,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111868443</v>
+        <v>111868823</v>
       </c>
       <c r="B15" t="n">
-        <v>94134</v>
+        <v>90666</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2164,42 +2161,44 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>53</v>
+        <v>4364</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Motjärnen (Motjärnen), Jmt</t>
+          <t>Kläppberget, Kläppberget, Haverö, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>494362.7928428605</v>
+        <v>494337.903403784</v>
       </c>
       <c r="R15" t="n">
-        <v>6928873.253674754</v>
+        <v>6928937.08739532</v>
       </c>
       <c r="S15" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2247,6 +2246,7 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2265,10 +2265,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111868481</v>
+        <v>111869523</v>
       </c>
       <c r="B16" t="n">
-        <v>89768</v>
+        <v>56543</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2277,25 +2277,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>298</v>
+        <v>103021</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Laxgröppa</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Byssomerulius albostramineus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Torrend) Hjortstam</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>494353.5649246778</v>
+        <v>494332.8215585449</v>
       </c>
       <c r="R16" t="n">
-        <v>6928891.297464305</v>
+        <v>6928943.105322422</v>
       </c>
       <c r="S16" t="n">
         <v>30</v>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2378,10 +2378,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111870880</v>
+        <v>111870556</v>
       </c>
       <c r="B17" t="n">
-        <v>90682</v>
+        <v>89768</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2390,25 +2390,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2059</v>
+        <v>298</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Laxgröppa</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Byssomerulius albostramineus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Torrend) Hjortstam</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2419,10 +2419,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>494329.8818758607</v>
+        <v>494300.8448030807</v>
       </c>
       <c r="R17" t="n">
-        <v>6928847.885087442</v>
+        <v>6928922.358515132</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>

--- a/artfynd/A 25323-2023.xlsx
+++ b/artfynd/A 25323-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111870313</v>
+        <v>111870880</v>
       </c>
       <c r="B2" t="n">
-        <v>90666</v>
+        <v>90682</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>494300.8448030807</v>
+        <v>494329.8818758607</v>
       </c>
       <c r="R2" t="n">
-        <v>6928922.358515132</v>
+        <v>6928847.885087442</v>
       </c>
       <c r="S2" t="n">
         <v>20</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111868438</v>
+        <v>111869281</v>
       </c>
       <c r="B3" t="n">
-        <v>89369</v>
+        <v>90670</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5447</v>
+        <v>4365</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>494362.7928428605</v>
+        <v>494332.8215585449</v>
       </c>
       <c r="R3" t="n">
-        <v>6928873.253674754</v>
+        <v>6928943.105322422</v>
       </c>
       <c r="S3" t="n">
         <v>30</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111870880</v>
+        <v>111870556</v>
       </c>
       <c r="B4" t="n">
-        <v>90682</v>
+        <v>89768</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2059</v>
+        <v>298</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Laxgröppa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Byssomerulius albostramineus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Torrend) Hjortstam</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>494329.8818758607</v>
+        <v>494300.8448030807</v>
       </c>
       <c r="R4" t="n">
-        <v>6928847.885087442</v>
+        <v>6928922.358515132</v>
       </c>
       <c r="S4" t="n">
         <v>20</v>
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111868481</v>
+        <v>111868438</v>
       </c>
       <c r="B5" t="n">
-        <v>89768</v>
+        <v>89369</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>298</v>
+        <v>5447</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Laxgröppa</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Byssomerulius albostramineus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Torrend) Hjortstam</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>494353.5649246778</v>
+        <v>494362.7928428605</v>
       </c>
       <c r="R5" t="n">
-        <v>6928891.297464305</v>
+        <v>6928873.253674754</v>
       </c>
       <c r="S5" t="n">
         <v>30</v>
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111870498</v>
+        <v>111870913</v>
       </c>
       <c r="B6" t="n">
-        <v>77515</v>
+        <v>90666</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,25 +1144,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1173,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>494300.8448030807</v>
+        <v>494329.8818758607</v>
       </c>
       <c r="R6" t="n">
-        <v>6928922.358515132</v>
+        <v>6928847.885087442</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111870057</v>
+        <v>111868497</v>
       </c>
       <c r="B7" t="n">
-        <v>90710</v>
+        <v>90666</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1257,25 +1257,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5449</v>
+        <v>4364</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1286,13 +1286,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>494313.8309844609</v>
+        <v>494353.5649246778</v>
       </c>
       <c r="R7" t="n">
-        <v>6928936.666174219</v>
+        <v>6928891.297464305</v>
       </c>
       <c r="S7" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111870723</v>
+        <v>111869523</v>
       </c>
       <c r="B8" t="n">
-        <v>77515</v>
+        <v>56543</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1374,21 +1374,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>103021</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1399,13 +1399,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>494308.2301515925</v>
+        <v>494332.8215585449</v>
       </c>
       <c r="R8" t="n">
-        <v>6928909.864978053</v>
+        <v>6928943.105322422</v>
       </c>
       <c r="S8" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1471,10 +1471,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111869281</v>
+        <v>111870313</v>
       </c>
       <c r="B9" t="n">
-        <v>90670</v>
+        <v>90666</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1483,25 +1483,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4365</v>
+        <v>4364</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>494332.8215585449</v>
+        <v>494300.8448030807</v>
       </c>
       <c r="R9" t="n">
-        <v>6928943.105322422</v>
+        <v>6928922.358515132</v>
       </c>
       <c r="S9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1584,7 +1584,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111870906</v>
+        <v>111870723</v>
       </c>
       <c r="B10" t="n">
         <v>77515</v>
@@ -1625,10 +1625,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>494329.8818758607</v>
+        <v>494308.2301515925</v>
       </c>
       <c r="R10" t="n">
-        <v>6928847.885087442</v>
+        <v>6928909.864978053</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111870913</v>
+        <v>111868823</v>
       </c>
       <c r="B11" t="n">
         <v>90666</v>
@@ -1731,20 +1731,22 @@
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Motjärnen (Motjärnen), Jmt</t>
+          <t>Kläppberget, Kläppberget, Haverö, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>494329.8818758607</v>
+        <v>494337.903403784</v>
       </c>
       <c r="R11" t="n">
-        <v>6928847.885087442</v>
+        <v>6928937.08739532</v>
       </c>
       <c r="S11" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1792,6 +1794,7 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1810,10 +1813,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111868497</v>
+        <v>111868975</v>
       </c>
       <c r="B12" t="n">
-        <v>90666</v>
+        <v>90678</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1826,21 +1829,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1851,10 +1854,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>494353.5649246778</v>
+        <v>494340.6856146594</v>
       </c>
       <c r="R12" t="n">
-        <v>6928891.297464305</v>
+        <v>6928939.85617921</v>
       </c>
       <c r="S12" t="n">
         <v>30</v>
@@ -1923,10 +1926,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111868975</v>
+        <v>111870498</v>
       </c>
       <c r="B13" t="n">
-        <v>90678</v>
+        <v>77515</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1935,25 +1938,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4366</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1964,13 +1967,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>494340.6856146594</v>
+        <v>494300.8448030807</v>
       </c>
       <c r="R13" t="n">
-        <v>6928939.85617921</v>
+        <v>6928922.358515132</v>
       </c>
       <c r="S13" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2036,10 +2039,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111868443</v>
+        <v>111868481</v>
       </c>
       <c r="B14" t="n">
-        <v>94134</v>
+        <v>89768</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2048,25 +2051,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>53</v>
+        <v>298</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Laxgröppa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Byssomerulius albostramineus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Torrend) Hjortstam</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2077,10 +2080,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>494362.7928428605</v>
+        <v>494353.5649246778</v>
       </c>
       <c r="R14" t="n">
-        <v>6928873.253674754</v>
+        <v>6928891.297464305</v>
       </c>
       <c r="S14" t="n">
         <v>30</v>
@@ -2149,10 +2152,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111868823</v>
+        <v>111868443</v>
       </c>
       <c r="B15" t="n">
-        <v>90666</v>
+        <v>94134</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2161,44 +2164,42 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4364</v>
+        <v>53</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Kläppberget, Kläppberget, Haverö, Jmt</t>
+          <t>Motjärnen (Motjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>494337.903403784</v>
+        <v>494362.7928428605</v>
       </c>
       <c r="R15" t="n">
-        <v>6928937.08739532</v>
+        <v>6928873.253674754</v>
       </c>
       <c r="S15" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2246,7 +2247,6 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2265,10 +2265,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111869523</v>
+        <v>111870057</v>
       </c>
       <c r="B16" t="n">
-        <v>56543</v>
+        <v>90710</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2281,21 +2281,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>103021</v>
+        <v>5449</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2306,13 +2306,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>494332.8215585449</v>
+        <v>494313.8309844609</v>
       </c>
       <c r="R16" t="n">
-        <v>6928943.105322422</v>
+        <v>6928936.666174219</v>
       </c>
       <c r="S16" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2378,10 +2378,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111870556</v>
+        <v>111870906</v>
       </c>
       <c r="B17" t="n">
-        <v>89768</v>
+        <v>77515</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2390,25 +2390,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>298</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Laxgröppa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Byssomerulius albostramineus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Torrend) Hjortstam</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2419,10 +2419,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>494300.8448030807</v>
+        <v>494329.8818758607</v>
       </c>
       <c r="R17" t="n">
-        <v>6928922.358515132</v>
+        <v>6928847.885087442</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>

--- a/artfynd/A 25323-2023.xlsx
+++ b/artfynd/A 25323-2023.xlsx
@@ -1584,10 +1584,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111870723</v>
+        <v>111868823</v>
       </c>
       <c r="B10" t="n">
-        <v>77515</v>
+        <v>90666</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1596,42 +1596,44 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Motjärnen (Motjärnen), Jmt</t>
+          <t>Kläppberget, Kläppberget, Haverö, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>494308.2301515925</v>
+        <v>494337.903403784</v>
       </c>
       <c r="R10" t="n">
-        <v>6928909.864978053</v>
+        <v>6928937.08739532</v>
       </c>
       <c r="S10" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1679,6 +1681,7 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1697,10 +1700,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111868823</v>
+        <v>111870723</v>
       </c>
       <c r="B11" t="n">
-        <v>90666</v>
+        <v>77515</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1709,44 +1712,42 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Kläppberget, Kläppberget, Haverö, Jmt</t>
+          <t>Motjärnen (Motjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>494337.903403784</v>
+        <v>494308.2301515925</v>
       </c>
       <c r="R11" t="n">
-        <v>6928937.08739532</v>
+        <v>6928909.864978053</v>
       </c>
       <c r="S11" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1794,7 +1795,6 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -2152,10 +2152,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111868443</v>
+        <v>111870057</v>
       </c>
       <c r="B15" t="n">
-        <v>94134</v>
+        <v>90710</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2168,21 +2168,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>53</v>
+        <v>5449</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2193,13 +2193,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>494362.7928428605</v>
+        <v>494313.8309844609</v>
       </c>
       <c r="R15" t="n">
-        <v>6928873.253674754</v>
+        <v>6928936.666174219</v>
       </c>
       <c r="S15" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2265,10 +2265,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111870057</v>
+        <v>111870906</v>
       </c>
       <c r="B16" t="n">
-        <v>90710</v>
+        <v>77515</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2281,21 +2281,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5449</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>494313.8309844609</v>
+        <v>494329.8818758607</v>
       </c>
       <c r="R16" t="n">
-        <v>6928936.666174219</v>
+        <v>6928847.885087442</v>
       </c>
       <c r="S16" t="n">
         <v>20</v>
@@ -2378,10 +2378,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111870906</v>
+        <v>111868443</v>
       </c>
       <c r="B17" t="n">
-        <v>77515</v>
+        <v>94134</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2394,21 +2394,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>53</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2419,13 +2419,13 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>494329.8818758607</v>
+        <v>494362.7928428605</v>
       </c>
       <c r="R17" t="n">
-        <v>6928847.885087442</v>
+        <v>6928873.253674754</v>
       </c>
       <c r="S17" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>

--- a/artfynd/A 25323-2023.xlsx
+++ b/artfynd/A 25323-2023.xlsx
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111869281</v>
+        <v>111868481</v>
       </c>
       <c r="B3" t="n">
-        <v>90670</v>
+        <v>89768</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4365</v>
+        <v>298</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Laxgröppa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Byssomerulius albostramineus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Torrend) Hjortstam</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>494332.8215585449</v>
+        <v>494353.5649246778</v>
       </c>
       <c r="R3" t="n">
-        <v>6928943.105322422</v>
+        <v>6928891.297464305</v>
       </c>
       <c r="S3" t="n">
         <v>30</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111870556</v>
+        <v>111870313</v>
       </c>
       <c r="B4" t="n">
-        <v>89768</v>
+        <v>90666</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>298</v>
+        <v>4364</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Laxgröppa</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Byssomerulius albostramineus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Torrend) Hjortstam</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111868438</v>
+        <v>111868823</v>
       </c>
       <c r="B5" t="n">
-        <v>89369</v>
+        <v>90666</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1035,38 +1035,40 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5447</v>
+        <v>4364</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Motjärnen (Motjärnen), Jmt</t>
+          <t>Kläppberget, Kläppberget, Haverö, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>494362.7928428605</v>
+        <v>494337.903403784</v>
       </c>
       <c r="R5" t="n">
-        <v>6928873.253674754</v>
+        <v>6928937.08739532</v>
       </c>
       <c r="S5" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1114,6 +1116,7 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1132,10 +1135,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111870913</v>
+        <v>111869281</v>
       </c>
       <c r="B6" t="n">
-        <v>90666</v>
+        <v>90670</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,25 +1147,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4364</v>
+        <v>4365</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1173,13 +1176,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>494329.8818758607</v>
+        <v>494332.8215585449</v>
       </c>
       <c r="R6" t="n">
-        <v>6928847.885087442</v>
+        <v>6928943.105322422</v>
       </c>
       <c r="S6" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1208,7 +1211,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1218,7 +1221,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1245,10 +1248,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111868497</v>
+        <v>111870723</v>
       </c>
       <c r="B7" t="n">
-        <v>90666</v>
+        <v>77515</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1257,25 +1260,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1286,13 +1289,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>494353.5649246778</v>
+        <v>494308.2301515925</v>
       </c>
       <c r="R7" t="n">
-        <v>6928891.297464305</v>
+        <v>6928909.864978053</v>
       </c>
       <c r="S7" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1358,10 +1361,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111869523</v>
+        <v>111870498</v>
       </c>
       <c r="B8" t="n">
-        <v>56543</v>
+        <v>77515</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1374,21 +1377,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>103021</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1399,13 +1402,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>494332.8215585449</v>
+        <v>494300.8448030807</v>
       </c>
       <c r="R8" t="n">
-        <v>6928943.105322422</v>
+        <v>6928922.358515132</v>
       </c>
       <c r="S8" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1434,7 +1437,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1444,7 +1447,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1471,7 +1474,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111870313</v>
+        <v>111870913</v>
       </c>
       <c r="B9" t="n">
         <v>90666</v>
@@ -1512,10 +1515,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>494300.8448030807</v>
+        <v>494329.8818758607</v>
       </c>
       <c r="R9" t="n">
-        <v>6928922.358515132</v>
+        <v>6928847.885087442</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1584,7 +1587,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111868823</v>
+        <v>111868497</v>
       </c>
       <c r="B10" t="n">
         <v>90666</v>
@@ -1618,22 +1621,20 @@
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Kläppberget, Kläppberget, Haverö, Jmt</t>
+          <t>Motjärnen (Motjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>494337.903403784</v>
+        <v>494353.5649246778</v>
       </c>
       <c r="R10" t="n">
-        <v>6928937.08739532</v>
+        <v>6928891.297464305</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1681,7 +1682,6 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111870723</v>
+        <v>111870906</v>
       </c>
       <c r="B11" t="n">
         <v>77515</v>
@@ -1741,10 +1741,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>494308.2301515925</v>
+        <v>494329.8818758607</v>
       </c>
       <c r="R11" t="n">
-        <v>6928909.864978053</v>
+        <v>6928847.885087442</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1813,10 +1813,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111868975</v>
+        <v>111868438</v>
       </c>
       <c r="B12" t="n">
-        <v>90678</v>
+        <v>89369</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1829,21 +1829,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4366</v>
+        <v>5447</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1854,10 +1854,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>494340.6856146594</v>
+        <v>494362.7928428605</v>
       </c>
       <c r="R12" t="n">
-        <v>6928939.85617921</v>
+        <v>6928873.253674754</v>
       </c>
       <c r="S12" t="n">
         <v>30</v>
@@ -1926,10 +1926,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111870498</v>
+        <v>111868443</v>
       </c>
       <c r="B13" t="n">
-        <v>77515</v>
+        <v>94134</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1942,21 +1942,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>53</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1967,13 +1967,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>494300.8448030807</v>
+        <v>494362.7928428605</v>
       </c>
       <c r="R13" t="n">
-        <v>6928922.358515132</v>
+        <v>6928873.253674754</v>
       </c>
       <c r="S13" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2039,10 +2039,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111868481</v>
+        <v>111870057</v>
       </c>
       <c r="B14" t="n">
-        <v>89768</v>
+        <v>90710</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2051,25 +2051,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>298</v>
+        <v>5449</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Laxgröppa</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Byssomerulius albostramineus</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Torrend) Hjortstam</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>494353.5649246778</v>
+        <v>494313.8309844609</v>
       </c>
       <c r="R14" t="n">
-        <v>6928891.297464305</v>
+        <v>6928936.666174219</v>
       </c>
       <c r="S14" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2152,10 +2152,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111870057</v>
+        <v>111869523</v>
       </c>
       <c r="B15" t="n">
-        <v>90710</v>
+        <v>56543</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2168,21 +2168,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5449</v>
+        <v>103021</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2193,13 +2193,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>494313.8309844609</v>
+        <v>494332.8215585449</v>
       </c>
       <c r="R15" t="n">
-        <v>6928936.666174219</v>
+        <v>6928943.105322422</v>
       </c>
       <c r="S15" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2265,10 +2265,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111870906</v>
+        <v>111870556</v>
       </c>
       <c r="B16" t="n">
-        <v>77515</v>
+        <v>89768</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2277,25 +2277,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>298</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Laxgröppa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Byssomerulius albostramineus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Torrend) Hjortstam</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>494329.8818758607</v>
+        <v>494300.8448030807</v>
       </c>
       <c r="R16" t="n">
-        <v>6928847.885087442</v>
+        <v>6928922.358515132</v>
       </c>
       <c r="S16" t="n">
         <v>20</v>
@@ -2378,10 +2378,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111868443</v>
+        <v>111868975</v>
       </c>
       <c r="B17" t="n">
-        <v>94134</v>
+        <v>90678</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2390,25 +2390,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>53</v>
+        <v>4366</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2419,10 +2419,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>494362.7928428605</v>
+        <v>494340.6856146594</v>
       </c>
       <c r="R17" t="n">
-        <v>6928873.253674754</v>
+        <v>6928939.85617921</v>
       </c>
       <c r="S17" t="n">
         <v>30</v>

--- a/artfynd/A 25323-2023.xlsx
+++ b/artfynd/A 25323-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111870880</v>
+        <v>111868481</v>
       </c>
       <c r="B2" t="n">
-        <v>90682</v>
+        <v>89768</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2059</v>
+        <v>298</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Laxgröppa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Byssomerulius albostramineus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Torrend) Hjortstam</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>494329.8818758607</v>
+        <v>494353.5649246778</v>
       </c>
       <c r="R2" t="n">
-        <v>6928847.885087442</v>
+        <v>6928891.297464305</v>
       </c>
       <c r="S2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111868481</v>
+        <v>111870880</v>
       </c>
       <c r="B3" t="n">
-        <v>89768</v>
+        <v>90682</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>298</v>
+        <v>2059</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Laxgröppa</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Byssomerulius albostramineus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Torrend) Hjortstam</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,13 +834,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>494353.5649246778</v>
+        <v>494329.8818758607</v>
       </c>
       <c r="R3" t="n">
-        <v>6928891.297464305</v>
+        <v>6928847.885087442</v>
       </c>
       <c r="S3" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>

--- a/artfynd/A 25323-2023.xlsx
+++ b/artfynd/A 25323-2023.xlsx
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>494353.5649246778</v>
+        <v>494354</v>
       </c>
       <c r="R2" t="n">
-        <v>6928891.297464305</v>
+        <v>6928891</v>
       </c>
       <c r="S2" t="n">
         <v>30</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111870880</v>
+        <v>111868975</v>
       </c>
       <c r="B3" t="n">
-        <v>90682</v>
+        <v>90678</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2059</v>
+        <v>4366</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,13 +834,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>494329.8818758607</v>
+        <v>494341</v>
       </c>
       <c r="R3" t="n">
-        <v>6928847.885087442</v>
+        <v>6928940</v>
       </c>
       <c r="S3" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>494300.8448030807</v>
+        <v>494301</v>
       </c>
       <c r="R4" t="n">
-        <v>6928922.358515132</v>
+        <v>6928922</v>
       </c>
       <c r="S4" t="n">
         <v>20</v>
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111868823</v>
+        <v>111870057</v>
       </c>
       <c r="B5" t="n">
-        <v>90666</v>
+        <v>90710</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,44 +1031,42 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4364</v>
+        <v>5449</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Kläppberget, Kläppberget, Haverö, Jmt</t>
+          <t>Motjärnen (Motjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>494337.903403784</v>
+        <v>494314</v>
       </c>
       <c r="R5" t="n">
-        <v>6928937.08739532</v>
+        <v>6928937</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1116,7 +1114,6 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1135,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111869281</v>
+        <v>111868497</v>
       </c>
       <c r="B6" t="n">
-        <v>90670</v>
+        <v>90666</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1147,25 +1144,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4365</v>
+        <v>4364</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1176,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>494332.8215585449</v>
+        <v>494354</v>
       </c>
       <c r="R6" t="n">
-        <v>6928943.105322422</v>
+        <v>6928891</v>
       </c>
       <c r="S6" t="n">
         <v>30</v>
@@ -1211,7 +1208,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1221,7 +1218,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1289,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>494308.2301515925</v>
+        <v>494308</v>
       </c>
       <c r="R7" t="n">
-        <v>6928909.864978053</v>
+        <v>6928910</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1402,10 +1399,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>494300.8448030807</v>
+        <v>494301</v>
       </c>
       <c r="R8" t="n">
-        <v>6928922.358515132</v>
+        <v>6928922</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1474,10 +1471,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111870913</v>
+        <v>111870906</v>
       </c>
       <c r="B9" t="n">
-        <v>90666</v>
+        <v>77515</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1486,25 +1483,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1515,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>494329.8818758607</v>
+        <v>494330</v>
       </c>
       <c r="R9" t="n">
-        <v>6928847.885087442</v>
+        <v>6928848</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1587,10 +1584,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111868497</v>
+        <v>111869523</v>
       </c>
       <c r="B10" t="n">
-        <v>90666</v>
+        <v>56543</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1599,25 +1596,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4364</v>
+        <v>103021</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1628,10 +1625,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>494353.5649246778</v>
+        <v>494333</v>
       </c>
       <c r="R10" t="n">
-        <v>6928891.297464305</v>
+        <v>6928943</v>
       </c>
       <c r="S10" t="n">
         <v>30</v>
@@ -1663,7 +1660,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1673,7 +1670,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1700,10 +1697,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111870906</v>
+        <v>111868438</v>
       </c>
       <c r="B11" t="n">
-        <v>77515</v>
+        <v>89369</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1712,25 +1709,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1741,13 +1738,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>494329.8818758607</v>
+        <v>494363</v>
       </c>
       <c r="R11" t="n">
-        <v>6928847.885087442</v>
+        <v>6928873</v>
       </c>
       <c r="S11" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1813,10 +1810,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111868438</v>
+        <v>111870880</v>
       </c>
       <c r="B12" t="n">
-        <v>89369</v>
+        <v>90682</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1825,25 +1822,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5447</v>
+        <v>2059</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1854,13 +1851,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>494362.7928428605</v>
+        <v>494330</v>
       </c>
       <c r="R12" t="n">
-        <v>6928873.253674754</v>
+        <v>6928848</v>
       </c>
       <c r="S12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1926,10 +1923,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111868443</v>
+        <v>111870913</v>
       </c>
       <c r="B13" t="n">
-        <v>94134</v>
+        <v>90666</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1938,25 +1935,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>53</v>
+        <v>4364</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1967,13 +1964,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>494362.7928428605</v>
+        <v>494330</v>
       </c>
       <c r="R13" t="n">
-        <v>6928873.253674754</v>
+        <v>6928848</v>
       </c>
       <c r="S13" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2039,10 +2036,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111870057</v>
+        <v>111869281</v>
       </c>
       <c r="B14" t="n">
-        <v>90710</v>
+        <v>90670</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2051,25 +2048,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5449</v>
+        <v>4365</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2080,13 +2077,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>494313.8309844609</v>
+        <v>494333</v>
       </c>
       <c r="R14" t="n">
-        <v>6928936.666174219</v>
+        <v>6928943</v>
       </c>
       <c r="S14" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2115,7 +2112,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2125,7 +2122,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2152,10 +2149,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111869523</v>
+        <v>111868823</v>
       </c>
       <c r="B15" t="n">
-        <v>56543</v>
+        <v>90666</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2164,42 +2161,44 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>103021</v>
+        <v>4364</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Motjärnen (Motjärnen), Jmt</t>
+          <t>Kläppberget, Kläppberget, Haverö, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>494332.8215585449</v>
+        <v>494338</v>
       </c>
       <c r="R15" t="n">
-        <v>6928943.105322422</v>
+        <v>6928937</v>
       </c>
       <c r="S15" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2228,7 +2227,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2238,7 +2237,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2247,6 +2246,7 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2265,10 +2265,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111870556</v>
+        <v>111868443</v>
       </c>
       <c r="B16" t="n">
-        <v>89768</v>
+        <v>94134</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2277,25 +2277,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>298</v>
+        <v>53</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Laxgröppa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Byssomerulius albostramineus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Torrend) Hjortstam</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2306,13 +2306,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>494300.8448030807</v>
+        <v>494363</v>
       </c>
       <c r="R16" t="n">
-        <v>6928922.358515132</v>
+        <v>6928873</v>
       </c>
       <c r="S16" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2378,10 +2378,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111868975</v>
+        <v>111870556</v>
       </c>
       <c r="B17" t="n">
-        <v>90678</v>
+        <v>89768</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2390,25 +2390,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4366</v>
+        <v>298</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Laxgröppa</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Byssomerulius albostramineus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Torrend) Hjortstam</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2419,13 +2419,13 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>494340.6856146594</v>
+        <v>494301</v>
       </c>
       <c r="R17" t="n">
-        <v>6928939.85617921</v>
+        <v>6928922</v>
       </c>
       <c r="S17" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>

--- a/artfynd/A 25323-2023.xlsx
+++ b/artfynd/A 25323-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111868481</v>
+        <v>111870313</v>
       </c>
       <c r="B2" t="n">
-        <v>89768</v>
+        <v>90800</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>298</v>
+        <v>4364</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Laxgröppa</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Byssomerulius albostramineus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Torrend) Hjortstam</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>494354</v>
+        <v>494301</v>
       </c>
       <c r="R2" t="n">
-        <v>6928891</v>
+        <v>6928922</v>
       </c>
       <c r="S2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111868975</v>
+        <v>111868481</v>
       </c>
       <c r="B3" t="n">
-        <v>90678</v>
+        <v>89902</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4366</v>
+        <v>298</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Laxgröppa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Byssomerulius albostramineus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Torrend) Hjortstam</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>494341</v>
+        <v>494354</v>
       </c>
       <c r="R3" t="n">
-        <v>6928940</v>
+        <v>6928891</v>
       </c>
       <c r="S3" t="n">
         <v>30</v>
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111870313</v>
+        <v>111868443</v>
       </c>
       <c r="B4" t="n">
-        <v>90666</v>
+        <v>94287</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4364</v>
+        <v>53</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,13 +947,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>494301</v>
+        <v>494363</v>
       </c>
       <c r="R4" t="n">
-        <v>6928922</v>
+        <v>6928873</v>
       </c>
       <c r="S4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111870057</v>
+        <v>111870913</v>
       </c>
       <c r="B5" t="n">
-        <v>90710</v>
+        <v>90800</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5449</v>
+        <v>4364</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>494314</v>
+        <v>494330</v>
       </c>
       <c r="R5" t="n">
-        <v>6928937</v>
+        <v>6928848</v>
       </c>
       <c r="S5" t="n">
         <v>20</v>
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111868497</v>
+        <v>111870498</v>
       </c>
       <c r="B6" t="n">
-        <v>90666</v>
+        <v>77636</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,25 +1144,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1173,13 +1173,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>494354</v>
+        <v>494301</v>
       </c>
       <c r="R6" t="n">
-        <v>6928891</v>
+        <v>6928922</v>
       </c>
       <c r="S6" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111870723</v>
+        <v>111868975</v>
       </c>
       <c r="B7" t="n">
-        <v>77515</v>
+        <v>90812</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1257,25 +1257,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>4366</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1286,13 +1286,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>494308</v>
+        <v>494341</v>
       </c>
       <c r="R7" t="n">
-        <v>6928910</v>
+        <v>6928940</v>
       </c>
       <c r="S7" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111870498</v>
+        <v>111869281</v>
       </c>
       <c r="B8" t="n">
-        <v>77515</v>
+        <v>90804</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1370,25 +1370,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>4365</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1399,13 +1399,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>494301</v>
+        <v>494333</v>
       </c>
       <c r="R8" t="n">
-        <v>6928922</v>
+        <v>6928943</v>
       </c>
       <c r="S8" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1471,10 +1471,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111870906</v>
+        <v>111870723</v>
       </c>
       <c r="B9" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>494330</v>
+        <v>494308</v>
       </c>
       <c r="R9" t="n">
-        <v>6928848</v>
+        <v>6928910</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111869523</v>
+        <v>111870906</v>
       </c>
       <c r="B10" t="n">
-        <v>56543</v>
+        <v>77636</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1600,21 +1600,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>103021</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1625,13 +1625,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>494333</v>
+        <v>494330</v>
       </c>
       <c r="R10" t="n">
-        <v>6928943</v>
+        <v>6928848</v>
       </c>
       <c r="S10" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1697,10 +1697,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111868438</v>
+        <v>111869523</v>
       </c>
       <c r="B11" t="n">
-        <v>89369</v>
+        <v>56575</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1709,25 +1709,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5447</v>
+        <v>103021</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1738,10 +1738,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>494363</v>
+        <v>494333</v>
       </c>
       <c r="R11" t="n">
-        <v>6928873</v>
+        <v>6928943</v>
       </c>
       <c r="S11" t="n">
         <v>30</v>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1810,10 +1810,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111870880</v>
+        <v>111870057</v>
       </c>
       <c r="B12" t="n">
-        <v>90682</v>
+        <v>90844</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1826,21 +1826,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2059</v>
+        <v>5449</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>494330</v>
+        <v>494314</v>
       </c>
       <c r="R12" t="n">
-        <v>6928848</v>
+        <v>6928937</v>
       </c>
       <c r="S12" t="n">
         <v>20</v>
@@ -1923,10 +1923,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111870913</v>
+        <v>111870880</v>
       </c>
       <c r="B13" t="n">
-        <v>90666</v>
+        <v>90816</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1935,25 +1935,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2036,10 +2036,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111869281</v>
+        <v>111868438</v>
       </c>
       <c r="B14" t="n">
-        <v>90670</v>
+        <v>89503</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2048,25 +2048,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4365</v>
+        <v>5447</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2077,10 +2077,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>494333</v>
+        <v>494363</v>
       </c>
       <c r="R14" t="n">
-        <v>6928943</v>
+        <v>6928873</v>
       </c>
       <c r="S14" t="n">
         <v>30</v>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2149,10 +2149,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111868823</v>
+        <v>111868497</v>
       </c>
       <c r="B15" t="n">
-        <v>90666</v>
+        <v>90800</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2183,22 +2183,20 @@
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Kläppberget, Kläppberget, Haverö, Jmt</t>
+          <t>Motjärnen (Motjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>494338</v>
+        <v>494354</v>
       </c>
       <c r="R15" t="n">
-        <v>6928937</v>
+        <v>6928891</v>
       </c>
       <c r="S15" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2246,7 +2244,6 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2265,10 +2262,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111868443</v>
+        <v>111868823</v>
       </c>
       <c r="B16" t="n">
-        <v>94134</v>
+        <v>90800</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2277,42 +2274,44 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>53</v>
+        <v>4364</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Motjärnen (Motjärnen), Jmt</t>
+          <t>Kläppberget, Kläppberget, Haverö, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>494363</v>
+        <v>494338</v>
       </c>
       <c r="R16" t="n">
-        <v>6928873</v>
+        <v>6928937</v>
       </c>
       <c r="S16" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2360,6 +2359,7 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>111870556</v>
       </c>
       <c r="B17" t="n">
-        <v>89768</v>
+        <v>89902</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>

--- a/artfynd/A 25323-2023.xlsx
+++ b/artfynd/A 25323-2023.xlsx
@@ -1697,10 +1697,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111869523</v>
+        <v>111870057</v>
       </c>
       <c r="B11" t="n">
-        <v>56575</v>
+        <v>90844</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1713,21 +1713,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>103021</v>
+        <v>5449</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1738,13 +1738,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>494333</v>
+        <v>494314</v>
       </c>
       <c r="R11" t="n">
-        <v>6928943</v>
+        <v>6928937</v>
       </c>
       <c r="S11" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1810,10 +1810,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111870057</v>
+        <v>111869523</v>
       </c>
       <c r="B12" t="n">
-        <v>90844</v>
+        <v>56575</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1826,21 +1826,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5449</v>
+        <v>103021</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1851,13 +1851,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>494314</v>
+        <v>494333</v>
       </c>
       <c r="R12" t="n">
-        <v>6928937</v>
+        <v>6928943</v>
       </c>
       <c r="S12" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AD12" t="b">
